--- a/6Timetable/data/20220425/●予約枠5月元データ（巽今宮・ダミー稼働日含む）.xlsx
+++ b/6Timetable/data/20220425/●予約枠5月元データ（巽今宮・ダミー稼働日含む）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">稼働日!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>開始時</t>
   </si>
@@ -189,6 +189,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>o</t>
     </r>
@@ -226,13 +228,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[&lt;=99999999]####\-####;\(00\)\ ####\-####"/>
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,7 +251,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <color auto="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <scheme val="minor"/>
@@ -262,6 +263,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -272,7 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,13 +504,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -533,22 +541,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -557,13 +565,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -586,18 +594,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
-    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -891,7 +900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -901,7 +910,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" customWidth="1"/>
@@ -914,7 +923,7 @@
     <col min="10" max="10" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -946,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -979,20 +988,20 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" fitToWidth="1" fitToHeight="0" orientation="landscape" usePrinterDefaults="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="10" bestFit="1" customWidth="1"/>
@@ -1012,7 +1021,7 @@
     <col min="17" max="20" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="96" customHeight="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
@@ -1074,7 +1083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>5</v>
       </c>
@@ -1137,7 +1146,7 @@
         <v>2022-05-06T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1">
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>5</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>2022-05-13T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1">
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>5</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>2022-05-20T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>5</v>
       </c>
@@ -1326,7 +1335,7 @@
         <v>2022-05-27T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" ht="14.25">
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1396,6 +1405,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="landscape" usePrinterDefaults="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>